--- a/adg-api/src/main/resources/viettin/uy-nhiem-chi.xlsx
+++ b/adg-api/src/main/resources/viettin/uy-nhiem-chi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luan.phm/engineering/Projects/ADongGroup/adg-services-v2/adg-api/src/main/resources/viettin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6883D19-2FFC-DA4C-9ED8-3E40B36B4765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2C58EC-242F-3844-923B-40EE7E6AFF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{1253E3CB-B280-9D4D-B0A8-3098E1C681EB}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="ND">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t xml:space="preserve">Ủy nhiệm chi </t>
   </si>
@@ -595,6 +595,65 @@
         <family val="1"/>
       </rPr>
       <t>Copy 1, Bank's copy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">             </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       Liên 2 Giao khách hàng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Copy 2, Customer''s copy</t>
     </r>
   </si>
 </sst>
@@ -737,7 +796,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -773,6 +832,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -792,13 +857,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -858,6 +923,75 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="7080250" y="269875"/>
+          <a:ext cx="1962150" cy="577850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1962150" cy="577850"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Description: Description: C:\Users\nn.tan\AppData\Local\Microsoft\Windows\INetCache\Content.Word\Logo mo╠¢╠üi5-01.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4748FCE2-B021-6E47-A99F-90EB5BD1B78B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7080250" y="231775"/>
           <a:ext cx="1962150" cy="577850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1190,11 +1324,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71D775A-B378-9044-BDC1-3122995B90E6}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1238,43 +1370,43 @@
     </row>
     <row r="4" spans="1:6" ht="20">
       <c r="A4" s="1"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="18">
       <c r="A5" s="1"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
@@ -1319,10 +1451,10 @@
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
@@ -1389,10 +1521,10 @@
       <c r="B17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="35" thickBot="1">
       <c r="A18" s="1"/>
@@ -1402,9 +1534,9 @@
       <c r="C18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="46">
       <c r="A19" s="1"/>
@@ -1420,7 +1552,7 @@
       <c r="E19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1430,7 +1562,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="17"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1"/>
@@ -1438,7 +1570,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="17"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1"/>
@@ -1446,10 +1578,252 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="17"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="19">
+      <c r="A28" s="1"/>
+      <c r="B28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="20">
+      <c r="A30" s="1"/>
+      <c r="B30" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" ht="18">
+      <c r="A31" s="1"/>
+      <c r="B31" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1"/>
+      <c r="B32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1"/>
+      <c r="B33" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="17">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1"/>
+      <c r="B43" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6" ht="35" thickBot="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6" ht="46">
+      <c r="A45" s="1"/>
+      <c r="B45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="B4:F4"/>
@@ -1458,6 +1832,14 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="F45:F48"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="C37:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
